--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efna4-Epha3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efna4-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,16 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Efna4</t>
   </si>
   <si>
     <t>Epha3</t>
   </si>
   <si>
-    <t>sCs</t>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.85114177165743</v>
+        <v>1.973732</v>
       </c>
       <c r="H2">
-        <v>1.85114177165743</v>
+        <v>3.947464</v>
       </c>
       <c r="I2">
-        <v>0.5499969496172107</v>
+        <v>0.4893579329828272</v>
       </c>
       <c r="J2">
-        <v>0.5499969496172107</v>
+        <v>0.4031433519344368</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>10.3476819803069</v>
+        <v>0.0147745</v>
       </c>
       <c r="N2">
-        <v>10.3476819803069</v>
+        <v>0.029549</v>
       </c>
       <c r="O2">
-        <v>0.9397314032634053</v>
+        <v>0.001149981856525043</v>
       </c>
       <c r="P2">
-        <v>0.9397314032634053</v>
+        <v>0.0007958682187241619</v>
       </c>
       <c r="Q2">
-        <v>19.15502635357298</v>
+        <v>0.029160903434</v>
       </c>
       <c r="R2">
-        <v>19.15502635357298</v>
+        <v>0.116643613736</v>
       </c>
       <c r="S2">
-        <v>0.5168494052543738</v>
+        <v>0.0005627527442768489</v>
       </c>
       <c r="T2">
-        <v>0.5168494052543738</v>
+        <v>0.0003208489813945481</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.85114177165743</v>
+        <v>1.973732</v>
       </c>
       <c r="H3">
-        <v>1.85114177165743</v>
+        <v>3.947464</v>
       </c>
       <c r="I3">
-        <v>0.5499969496172107</v>
+        <v>0.4893579329828272</v>
       </c>
       <c r="J3">
-        <v>0.5499969496172107</v>
+        <v>0.4031433519344368</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.113062531161492</v>
+        <v>11.243073</v>
       </c>
       <c r="N3">
-        <v>0.113062531161492</v>
+        <v>33.729219</v>
       </c>
       <c r="O3">
-        <v>0.01026784658313882</v>
+        <v>0.8751111686748507</v>
       </c>
       <c r="P3">
-        <v>0.01026784658313882</v>
+        <v>0.9084575939790571</v>
       </c>
       <c r="Q3">
-        <v>0.2092947742423577</v>
+        <v>22.190812958436</v>
       </c>
       <c r="R3">
-        <v>0.2092947742423577</v>
+        <v>133.144877750616</v>
       </c>
       <c r="S3">
-        <v>0.005647284299863851</v>
+        <v>0.4282425926329112</v>
       </c>
       <c r="T3">
-        <v>0.005647284299863851</v>
+        <v>0.3662386395270107</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,619 +652,1735 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.85114177165743</v>
+        <v>1.973732</v>
       </c>
       <c r="H4">
-        <v>1.85114177165743</v>
+        <v>3.947464</v>
       </c>
       <c r="I4">
-        <v>0.5499969496172107</v>
+        <v>0.4893579329828272</v>
       </c>
       <c r="J4">
-        <v>0.5499969496172107</v>
+        <v>0.4031433519344368</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.550574195528632</v>
+        <v>0.04370233333333334</v>
       </c>
       <c r="N4">
-        <v>0.550574195528632</v>
+        <v>0.131107</v>
       </c>
       <c r="O4">
-        <v>0.05000075015345577</v>
+        <v>0.003401596698442785</v>
       </c>
       <c r="P4">
-        <v>0.05000075015345577</v>
+        <v>0.003531215762031497</v>
       </c>
       <c r="Q4">
-        <v>1.019190891739736</v>
+        <v>0.08625669377466667</v>
       </c>
       <c r="R4">
-        <v>1.019190891739736</v>
+        <v>0.5175401626480001</v>
       </c>
       <c r="S4">
-        <v>0.02750026006297296</v>
+        <v>0.001664598329191171</v>
       </c>
       <c r="T4">
-        <v>0.02750026006297296</v>
+        <v>0.001423586158709094</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5059064258556349</v>
+        <v>1.973732</v>
       </c>
       <c r="H5">
-        <v>0.5059064258556349</v>
+        <v>3.947464</v>
       </c>
       <c r="I5">
-        <v>0.1503110108974608</v>
+        <v>0.4893579329828272</v>
       </c>
       <c r="J5">
-        <v>0.1503110108974608</v>
+        <v>0.4031433519344368</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>10.3476819803069</v>
+        <v>0.03203666666666666</v>
       </c>
       <c r="N5">
-        <v>10.3476819803069</v>
+        <v>0.09611</v>
       </c>
       <c r="O5">
-        <v>0.9397314032634053</v>
+        <v>0.002493592704335665</v>
       </c>
       <c r="P5">
-        <v>0.9397314032634053</v>
+        <v>0.002588611949696409</v>
       </c>
       <c r="Q5">
-        <v>5.234958806547823</v>
+        <v>0.06323179417333333</v>
       </c>
       <c r="R5">
-        <v>5.234958806547823</v>
+        <v>0.37939076504</v>
       </c>
       <c r="S5">
-        <v>0.1412519771966118</v>
+        <v>0.001220259371494759</v>
       </c>
       <c r="T5">
-        <v>0.1412519771966118</v>
+        <v>0.001043581698258148</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5059064258556349</v>
+        <v>1.973732</v>
       </c>
       <c r="H6">
-        <v>0.5059064258556349</v>
+        <v>3.947464</v>
       </c>
       <c r="I6">
-        <v>0.1503110108974608</v>
+        <v>0.4893579329828272</v>
       </c>
       <c r="J6">
-        <v>0.1503110108974608</v>
+        <v>0.4031433519344368</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.113062531161492</v>
+        <v>0.114006</v>
       </c>
       <c r="N6">
-        <v>0.113062531161492</v>
+        <v>0.342018</v>
       </c>
       <c r="O6">
-        <v>0.01026784658313882</v>
+        <v>0.008873723749365056</v>
       </c>
       <c r="P6">
-        <v>0.01026784658313882</v>
+        <v>0.009211860179078832</v>
       </c>
       <c r="Q6">
-        <v>0.05719906103810177</v>
+        <v>0.225017290392</v>
       </c>
       <c r="R6">
-        <v>0.05719906103810177</v>
+        <v>1.350103742352</v>
       </c>
       <c r="S6">
-        <v>0.001543370399651635</v>
+        <v>0.004342427111849907</v>
       </c>
       <c r="T6">
-        <v>0.001543370399651635</v>
+        <v>0.003713700190145202</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5059064258556349</v>
+        <v>1.973732</v>
       </c>
       <c r="H7">
-        <v>0.5059064258556349</v>
+        <v>3.947464</v>
       </c>
       <c r="I7">
-        <v>0.1503110108974608</v>
+        <v>0.4893579329828272</v>
       </c>
       <c r="J7">
-        <v>0.1503110108974608</v>
+        <v>0.4031433519344368</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.550574195528632</v>
+        <v>1.4000015</v>
       </c>
       <c r="N7">
-        <v>0.550574195528632</v>
+        <v>2.800003</v>
       </c>
       <c r="O7">
-        <v>0.05000075015345577</v>
+        <v>0.1089699363164807</v>
       </c>
       <c r="P7">
-        <v>0.05000075015345577</v>
+        <v>0.07541484991141187</v>
       </c>
       <c r="Q7">
-        <v>0.2785390234282317</v>
+        <v>2.763227760598</v>
       </c>
       <c r="R7">
-        <v>0.2785390234282317</v>
+        <v>11.052911042392</v>
       </c>
       <c r="S7">
-        <v>0.007515663301197304</v>
+        <v>0.05332530279310332</v>
       </c>
       <c r="T7">
-        <v>0.007515663301197304</v>
+        <v>0.03040299537891905</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.146113417591255</v>
+        <v>0.5518016666666666</v>
       </c>
       <c r="H8">
-        <v>0.146113417591255</v>
+        <v>1.655405</v>
       </c>
       <c r="I8">
-        <v>0.04341209042102888</v>
+        <v>0.1368111390079702</v>
       </c>
       <c r="J8">
-        <v>0.04341209042102888</v>
+        <v>0.1690618383116417</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>10.3476819803069</v>
+        <v>0.0147745</v>
       </c>
       <c r="N8">
-        <v>10.3476819803069</v>
+        <v>0.029549</v>
       </c>
       <c r="O8">
-        <v>0.9397314032634053</v>
+        <v>0.001149981856525043</v>
       </c>
       <c r="P8">
-        <v>0.9397314032634053</v>
+        <v>0.0007958682187241619</v>
       </c>
       <c r="Q8">
-        <v>1.511935178290087</v>
+        <v>0.008152593724166666</v>
       </c>
       <c r="R8">
-        <v>1.511935178290087</v>
+        <v>0.048915562345</v>
       </c>
       <c r="S8">
-        <v>0.0407957046499513</v>
+        <v>0.0001573303276296912</v>
       </c>
       <c r="T8">
-        <v>0.0407957046499513</v>
+        <v>0.0001345509441113185</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.146113417591255</v>
+        <v>0.5518016666666666</v>
       </c>
       <c r="H9">
-        <v>0.146113417591255</v>
+        <v>1.655405</v>
       </c>
       <c r="I9">
-        <v>0.04341209042102888</v>
+        <v>0.1368111390079702</v>
       </c>
       <c r="J9">
-        <v>0.04341209042102888</v>
+        <v>0.1690618383116417</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.113062531161492</v>
+        <v>11.243073</v>
       </c>
       <c r="N9">
-        <v>0.113062531161492</v>
+        <v>33.729219</v>
       </c>
       <c r="O9">
-        <v>0.01026784658313882</v>
+        <v>0.8751111686748507</v>
       </c>
       <c r="P9">
-        <v>0.01026784658313882</v>
+        <v>0.9084575939790571</v>
       </c>
       <c r="Q9">
-        <v>0.01651995282952336</v>
+        <v>6.203946419855</v>
       </c>
       <c r="R9">
-        <v>0.01651995282952336</v>
+        <v>55.835517778695</v>
       </c>
       <c r="S9">
-        <v>0.0004457486842964749</v>
+        <v>0.1197249557450022</v>
       </c>
       <c r="T9">
-        <v>0.0004457486842964749</v>
+        <v>0.1535855108662704</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.146113417591255</v>
+        <v>0.5518016666666666</v>
       </c>
       <c r="H10">
-        <v>0.146113417591255</v>
+        <v>1.655405</v>
       </c>
       <c r="I10">
-        <v>0.04341209042102888</v>
+        <v>0.1368111390079702</v>
       </c>
       <c r="J10">
-        <v>0.04341209042102888</v>
+        <v>0.1690618383116417</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.550574195528632</v>
+        <v>0.04370233333333334</v>
       </c>
       <c r="N10">
-        <v>0.550574195528632</v>
+        <v>0.131107</v>
       </c>
       <c r="O10">
-        <v>0.05000075015345577</v>
+        <v>0.003401596698442785</v>
       </c>
       <c r="P10">
-        <v>0.05000075015345577</v>
+        <v>0.003531215762031497</v>
       </c>
       <c r="Q10">
-        <v>0.08044627734624429</v>
+        <v>0.02411502037055556</v>
       </c>
       <c r="R10">
-        <v>0.08044627734624429</v>
+        <v>0.217035183335</v>
       </c>
       <c r="S10">
-        <v>0.002170637086781096</v>
+        <v>0.0004653763187597082</v>
       </c>
       <c r="T10">
-        <v>0.002170637086781096</v>
+        <v>0.0005969938282040896</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.862569363850737</v>
+        <v>0.5518016666666666</v>
       </c>
       <c r="H11">
-        <v>0.862569363850737</v>
+        <v>1.655405</v>
       </c>
       <c r="I11">
-        <v>0.2562799490642995</v>
+        <v>0.1368111390079702</v>
       </c>
       <c r="J11">
-        <v>0.2562799490642995</v>
+        <v>0.1690618383116417</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>10.3476819803069</v>
+        <v>0.03203666666666666</v>
       </c>
       <c r="N11">
-        <v>10.3476819803069</v>
+        <v>0.09611</v>
       </c>
       <c r="O11">
-        <v>0.9397314032634053</v>
+        <v>0.002493592704335665</v>
       </c>
       <c r="P11">
-        <v>0.9397314032634053</v>
+        <v>0.002588611949696409</v>
       </c>
       <c r="Q11">
-        <v>8.925593463083057</v>
+        <v>0.01767788606111111</v>
       </c>
       <c r="R11">
-        <v>8.925593463083057</v>
+        <v>0.15910097455</v>
       </c>
       <c r="S11">
-        <v>0.2408343161624682</v>
+        <v>0.000341151258102127</v>
       </c>
       <c r="T11">
-        <v>0.2408343161624682</v>
+        <v>0.000437635494891158</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.862569363850737</v>
+        <v>0.5518016666666666</v>
       </c>
       <c r="H12">
-        <v>0.862569363850737</v>
+        <v>1.655405</v>
       </c>
       <c r="I12">
-        <v>0.2562799490642995</v>
+        <v>0.1368111390079702</v>
       </c>
       <c r="J12">
-        <v>0.2562799490642995</v>
+        <v>0.1690618383116417</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.113062531161492</v>
+        <v>0.114006</v>
       </c>
       <c r="N12">
-        <v>0.113062531161492</v>
+        <v>0.342018</v>
       </c>
       <c r="O12">
-        <v>0.01026784658313882</v>
+        <v>0.008873723749365056</v>
       </c>
       <c r="P12">
-        <v>0.01026784658313882</v>
+        <v>0.009211860179078832</v>
       </c>
       <c r="Q12">
-        <v>0.09752427557932228</v>
+        <v>0.06290870081</v>
       </c>
       <c r="R12">
-        <v>0.09752427557932228</v>
+        <v>0.5661783072900001</v>
       </c>
       <c r="S12">
-        <v>0.002631443199326859</v>
+        <v>0.001214024253392709</v>
       </c>
       <c r="T12">
-        <v>0.002631443199326859</v>
+        <v>0.001557374016144876</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5518016666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.655405</v>
+      </c>
+      <c r="I13">
+        <v>0.1368111390079702</v>
+      </c>
+      <c r="J13">
+        <v>0.1690618383116417</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.4000015</v>
+      </c>
+      <c r="N13">
+        <v>2.800003</v>
+      </c>
+      <c r="O13">
+        <v>0.1089699363164807</v>
+      </c>
+      <c r="P13">
+        <v>0.07541484991141187</v>
+      </c>
+      <c r="Q13">
+        <v>0.7725231610358332</v>
+      </c>
+      <c r="R13">
+        <v>4.635138966215</v>
+      </c>
+      <c r="S13">
+        <v>0.0149083011050837</v>
+      </c>
+      <c r="T13">
+        <v>0.01274977316201984</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.1827426666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.5482279999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.0453083669048127</v>
+      </c>
+      <c r="J14">
+        <v>0.05598897761811442</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.0147745</v>
+      </c>
+      <c r="N14">
+        <v>0.029549</v>
+      </c>
+      <c r="O14">
+        <v>0.001149981856525043</v>
+      </c>
+      <c r="P14">
+        <v>0.0007958682187241619</v>
+      </c>
+      <c r="Q14">
+        <v>0.002699931528666666</v>
+      </c>
+      <c r="R14">
+        <v>0.016199589172</v>
+      </c>
+      <c r="S14">
+        <v>5.21037998893143E-05</v>
+      </c>
+      <c r="T14">
+        <v>4.455984788511569E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.1827426666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.5482279999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.0453083669048127</v>
+      </c>
+      <c r="J15">
+        <v>0.05598897761811442</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>11.243073</v>
+      </c>
+      <c r="N15">
+        <v>33.729219</v>
+      </c>
+      <c r="O15">
+        <v>0.8751111686748507</v>
+      </c>
+      <c r="P15">
+        <v>0.9084575939790571</v>
+      </c>
+      <c r="Q15">
+        <v>2.054589141548</v>
+      </c>
+      <c r="R15">
+        <v>18.491302273932</v>
+      </c>
+      <c r="S15">
+        <v>0.03964985791281957</v>
+      </c>
+      <c r="T15">
+        <v>0.0508636118962995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.1827426666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.5482279999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.0453083669048127</v>
+      </c>
+      <c r="J16">
+        <v>0.05598897761811442</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.04370233333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.131107</v>
+      </c>
+      <c r="O16">
+        <v>0.003401596698442785</v>
+      </c>
+      <c r="P16">
+        <v>0.003531215762031497</v>
+      </c>
+      <c r="Q16">
+        <v>0.007986280932888888</v>
+      </c>
+      <c r="R16">
+        <v>0.07187652839599999</v>
+      </c>
+      <c r="S16">
+        <v>0.0001541207912752452</v>
+      </c>
+      <c r="T16">
+        <v>0.0001977091602651143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.1827426666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.5482279999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.0453083669048127</v>
+      </c>
+      <c r="J17">
+        <v>0.05598897761811442</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.03203666666666666</v>
+      </c>
+      <c r="N17">
+        <v>0.09611</v>
+      </c>
+      <c r="O17">
+        <v>0.002493592704335665</v>
+      </c>
+      <c r="P17">
+        <v>0.002588611949696409</v>
+      </c>
+      <c r="Q17">
+        <v>0.005854465897777776</v>
+      </c>
+      <c r="R17">
+        <v>0.05269019308</v>
+      </c>
+      <c r="S17">
+        <v>0.0001129806131592044</v>
+      </c>
+      <c r="T17">
+        <v>0.0001449337365135358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.1827426666666666</v>
+      </c>
+      <c r="H18">
+        <v>0.5482279999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.0453083669048127</v>
+      </c>
+      <c r="J18">
+        <v>0.05598897761811442</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.114006</v>
+      </c>
+      <c r="N18">
+        <v>0.342018</v>
+      </c>
+      <c r="O18">
+        <v>0.008873723749365056</v>
+      </c>
+      <c r="P18">
+        <v>0.009211860179078832</v>
+      </c>
+      <c r="Q18">
+        <v>0.020833760456</v>
+      </c>
+      <c r="R18">
+        <v>0.187503844104</v>
+      </c>
+      <c r="S18">
+        <v>0.0004020539314481822</v>
+      </c>
+      <c r="T18">
+        <v>0.0005157626333876442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.862569363850737</v>
-      </c>
-      <c r="H13">
-        <v>0.862569363850737</v>
-      </c>
-      <c r="I13">
-        <v>0.2562799490642995</v>
-      </c>
-      <c r="J13">
-        <v>0.2562799490642995</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.550574195528632</v>
-      </c>
-      <c r="N13">
-        <v>0.550574195528632</v>
-      </c>
-      <c r="O13">
-        <v>0.05000075015345577</v>
-      </c>
-      <c r="P13">
-        <v>0.05000075015345577</v>
-      </c>
-      <c r="Q13">
-        <v>0.4749084335897634</v>
-      </c>
-      <c r="R13">
-        <v>0.4749084335897634</v>
-      </c>
-      <c r="S13">
-        <v>0.01281418970250441</v>
-      </c>
-      <c r="T13">
-        <v>0.01281418970250441</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.1827426666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.5482279999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.0453083669048127</v>
+      </c>
+      <c r="J19">
+        <v>0.05598897761811442</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.4000015</v>
+      </c>
+      <c r="N19">
+        <v>2.800003</v>
+      </c>
+      <c r="O19">
+        <v>0.1089699363164807</v>
+      </c>
+      <c r="P19">
+        <v>0.07541484991141187</v>
+      </c>
+      <c r="Q19">
+        <v>0.2558400074473333</v>
+      </c>
+      <c r="R19">
+        <v>1.535040044684</v>
+      </c>
+      <c r="S19">
+        <v>0.004937249856221183</v>
+      </c>
+      <c r="T19">
+        <v>0.004222400343763497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.9905496666666668</v>
+      </c>
+      <c r="H20">
+        <v>2.971649</v>
+      </c>
+      <c r="I20">
+        <v>0.2455922776733764</v>
+      </c>
+      <c r="J20">
+        <v>0.3034861213763108</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.0147745</v>
+      </c>
+      <c r="N20">
+        <v>0.029549</v>
+      </c>
+      <c r="O20">
+        <v>0.001149981856525043</v>
+      </c>
+      <c r="P20">
+        <v>0.0007958682187241619</v>
+      </c>
+      <c r="Q20">
+        <v>0.01463487605016667</v>
+      </c>
+      <c r="R20">
+        <v>0.087809256301</v>
+      </c>
+      <c r="S20">
+        <v>0.0002824266634270431</v>
+      </c>
+      <c r="T20">
+        <v>0.0002415349588272693</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.9905496666666668</v>
+      </c>
+      <c r="H21">
+        <v>2.971649</v>
+      </c>
+      <c r="I21">
+        <v>0.2455922776733764</v>
+      </c>
+      <c r="J21">
+        <v>0.3034861213763108</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>11.243073</v>
+      </c>
+      <c r="N21">
+        <v>33.729219</v>
+      </c>
+      <c r="O21">
+        <v>0.8751111686748507</v>
+      </c>
+      <c r="P21">
+        <v>0.9084575939790571</v>
+      </c>
+      <c r="Q21">
+        <v>11.136822212459</v>
+      </c>
+      <c r="R21">
+        <v>100.231399912131</v>
+      </c>
+      <c r="S21">
+        <v>0.2149205451322669</v>
+      </c>
+      <c r="T21">
+        <v>0.2757042716315594</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.9905496666666668</v>
+      </c>
+      <c r="H22">
+        <v>2.971649</v>
+      </c>
+      <c r="I22">
+        <v>0.2455922776733764</v>
+      </c>
+      <c r="J22">
+        <v>0.3034861213763108</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.04370233333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.131107</v>
+      </c>
+      <c r="O22">
+        <v>0.003401596698442785</v>
+      </c>
+      <c r="P22">
+        <v>0.003531215762031497</v>
+      </c>
+      <c r="Q22">
+        <v>0.0432893317158889</v>
+      </c>
+      <c r="R22">
+        <v>0.389603985443</v>
+      </c>
+      <c r="S22">
+        <v>0.0008354058808968007</v>
+      </c>
+      <c r="T22">
+        <v>0.001071674975361833</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.9905496666666668</v>
+      </c>
+      <c r="H23">
+        <v>2.971649</v>
+      </c>
+      <c r="I23">
+        <v>0.2455922776733764</v>
+      </c>
+      <c r="J23">
+        <v>0.3034861213763108</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.03203666666666666</v>
+      </c>
+      <c r="N23">
+        <v>0.09611</v>
+      </c>
+      <c r="O23">
+        <v>0.002493592704335665</v>
+      </c>
+      <c r="P23">
+        <v>0.002588611949696409</v>
+      </c>
+      <c r="Q23">
+        <v>0.03173390948777778</v>
+      </c>
+      <c r="R23">
+        <v>0.28560518539</v>
+      </c>
+      <c r="S23">
+        <v>0.0006124071118475102</v>
+      </c>
+      <c r="T23">
+        <v>0.0007856078003617331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.9905496666666668</v>
+      </c>
+      <c r="H24">
+        <v>2.971649</v>
+      </c>
+      <c r="I24">
+        <v>0.2455922776733764</v>
+      </c>
+      <c r="J24">
+        <v>0.3034861213763108</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.114006</v>
+      </c>
+      <c r="N24">
+        <v>0.342018</v>
+      </c>
+      <c r="O24">
+        <v>0.008873723749365056</v>
+      </c>
+      <c r="P24">
+        <v>0.009211860179078832</v>
+      </c>
+      <c r="Q24">
+        <v>0.112928605298</v>
+      </c>
+      <c r="R24">
+        <v>1.016357447682</v>
+      </c>
+      <c r="S24">
+        <v>0.002179318027050898</v>
+      </c>
+      <c r="T24">
+        <v>0.002795671716409523</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.9905496666666668</v>
+      </c>
+      <c r="H25">
+        <v>2.971649</v>
+      </c>
+      <c r="I25">
+        <v>0.2455922776733764</v>
+      </c>
+      <c r="J25">
+        <v>0.3034861213763108</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.4000015</v>
+      </c>
+      <c r="N25">
+        <v>2.800003</v>
+      </c>
+      <c r="O25">
+        <v>0.1089699363164807</v>
+      </c>
+      <c r="P25">
+        <v>0.07541484991141187</v>
+      </c>
+      <c r="Q25">
+        <v>1.386771019157833</v>
+      </c>
+      <c r="R25">
+        <v>8.320626114947</v>
+      </c>
+      <c r="S25">
+        <v>0.02676217485788727</v>
+      </c>
+      <c r="T25">
+        <v>0.022887360293791</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.3344835</v>
+      </c>
+      <c r="H26">
+        <v>0.668967</v>
+      </c>
+      <c r="I26">
+        <v>0.08293028343101366</v>
+      </c>
+      <c r="J26">
+        <v>0.06831971075949632</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.0147745</v>
+      </c>
+      <c r="N26">
+        <v>0.029549</v>
+      </c>
+      <c r="O26">
+        <v>0.001149981856525043</v>
+      </c>
+      <c r="P26">
+        <v>0.0007958682187241619</v>
+      </c>
+      <c r="Q26">
+        <v>0.00494182647075</v>
+      </c>
+      <c r="R26">
+        <v>0.019767305883</v>
+      </c>
+      <c r="S26">
+        <v>9.536832130214506E-05</v>
+      </c>
+      <c r="T26">
+        <v>5.437348650591029E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>0.3344835</v>
+      </c>
+      <c r="H27">
+        <v>0.668967</v>
+      </c>
+      <c r="I27">
+        <v>0.08293028343101366</v>
+      </c>
+      <c r="J27">
+        <v>0.06831971075949632</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>11.243073</v>
+      </c>
+      <c r="N27">
+        <v>33.729219</v>
+      </c>
+      <c r="O27">
+        <v>0.8751111686748507</v>
+      </c>
+      <c r="P27">
+        <v>0.9084575939790571</v>
+      </c>
+      <c r="Q27">
+        <v>3.7606224077955</v>
+      </c>
+      <c r="R27">
+        <v>22.563734446773</v>
+      </c>
+      <c r="S27">
+        <v>0.07257321725185098</v>
+      </c>
+      <c r="T27">
+        <v>0.06206556005791713</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>0.3344835</v>
+      </c>
+      <c r="H28">
+        <v>0.668967</v>
+      </c>
+      <c r="I28">
+        <v>0.08293028343101366</v>
+      </c>
+      <c r="J28">
+        <v>0.06831971075949632</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.04370233333333334</v>
+      </c>
+      <c r="N28">
+        <v>0.131107</v>
+      </c>
+      <c r="O28">
+        <v>0.003401596698442785</v>
+      </c>
+      <c r="P28">
+        <v>0.003531215762031497</v>
+      </c>
+      <c r="Q28">
+        <v>0.0146177094115</v>
+      </c>
+      <c r="R28">
+        <v>0.087706256469</v>
+      </c>
+      <c r="S28">
+        <v>0.0002820953783198605</v>
+      </c>
+      <c r="T28">
+        <v>0.0002412516394913662</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>0.3344835</v>
+      </c>
+      <c r="H29">
+        <v>0.668967</v>
+      </c>
+      <c r="I29">
+        <v>0.08293028343101366</v>
+      </c>
+      <c r="J29">
+        <v>0.06831971075949632</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.03203666666666666</v>
+      </c>
+      <c r="N29">
+        <v>0.09611</v>
+      </c>
+      <c r="O29">
+        <v>0.002493592704335665</v>
+      </c>
+      <c r="P29">
+        <v>0.002588611949696409</v>
+      </c>
+      <c r="Q29">
+        <v>0.010715736395</v>
+      </c>
+      <c r="R29">
+        <v>0.06429441836999999</v>
+      </c>
+      <c r="S29">
+        <v>0.0002067943497320646</v>
+      </c>
+      <c r="T29">
+        <v>0.0001768532196718345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>0.3344835</v>
+      </c>
+      <c r="H30">
+        <v>0.668967</v>
+      </c>
+      <c r="I30">
+        <v>0.08293028343101366</v>
+      </c>
+      <c r="J30">
+        <v>0.06831971075949632</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.114006</v>
+      </c>
+      <c r="N30">
+        <v>0.342018</v>
+      </c>
+      <c r="O30">
+        <v>0.008873723749365056</v>
+      </c>
+      <c r="P30">
+        <v>0.009211860179078832</v>
+      </c>
+      <c r="Q30">
+        <v>0.038133125901</v>
+      </c>
+      <c r="R30">
+        <v>0.228798755406</v>
+      </c>
+      <c r="S30">
+        <v>0.0007359004256233614</v>
+      </c>
+      <c r="T30">
+        <v>0.0006293516229915878</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>0.3344835</v>
+      </c>
+      <c r="H31">
+        <v>0.668967</v>
+      </c>
+      <c r="I31">
+        <v>0.08293028343101366</v>
+      </c>
+      <c r="J31">
+        <v>0.06831971075949632</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.4000015</v>
+      </c>
+      <c r="N31">
+        <v>2.800003</v>
+      </c>
+      <c r="O31">
+        <v>0.1089699363164807</v>
+      </c>
+      <c r="P31">
+        <v>0.07541484991141187</v>
+      </c>
+      <c r="Q31">
+        <v>0.46827740172525</v>
+      </c>
+      <c r="R31">
+        <v>1.873109606901</v>
+      </c>
+      <c r="S31">
+        <v>0.009036907704185256</v>
+      </c>
+      <c r="T31">
+        <v>0.005152320732918486</v>
       </c>
     </row>
   </sheetData>
